--- a/1 Login details/Default.xlsx
+++ b/1 Login details/Default.xlsx
@@ -489,7 +489,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
